--- a/generated-tests/pincher/frontend/direct/metrics.xlsx
+++ b/generated-tests/pincher/frontend/direct/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543D3F82-8403-4951-9D1B-0E41B6F7F15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC44A902-91CF-4595-8DB6-3EACBFF618D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Test</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>reports-2.spec</t>
+  </si>
+  <si>
+    <t>person-1.spec</t>
+  </si>
+  <si>
+    <t>persons</t>
+  </si>
+  <si>
+    <t>overview (person)</t>
+  </si>
+  <si>
+    <t>base (person)</t>
+  </si>
+  <si>
+    <t>person</t>
   </si>
 </sst>
 </file>
@@ -362,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -395,6 +410,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -736,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="D5:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,47 +869,89 @@
       <c r="M8" s="31"/>
     </row>
     <row r="9" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D9" s="11"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="21">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="22">
+        <v>33</v>
+      </c>
+      <c r="I9" s="6">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6">
+        <v>15</v>
+      </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D10" s="12"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="19">
+        <v>100</v>
+      </c>
+      <c r="G10" s="32">
+        <v>100</v>
+      </c>
+      <c r="H10" s="20">
+        <v>100</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D11" s="10"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="E11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="32">
+        <v>38</v>
+      </c>
+      <c r="G11" s="32">
+        <v>12</v>
+      </c>
+      <c r="H11" s="20">
+        <v>49</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="20"/>
+      <c r="E12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>

--- a/generated-tests/pincher/frontend/direct/metrics.xlsx
+++ b/generated-tests/pincher/frontend/direct/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC44A902-91CF-4595-8DB6-3EACBFF618D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0CD424-6835-4B7B-8082-C7FD4E18F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Test</t>
   </si>
@@ -90,6 +90,30 @@
   </si>
   <si>
     <t>person</t>
+  </si>
+  <si>
+    <t>person-2.spec</t>
+  </si>
+  <si>
+    <t>contract-1.spec</t>
+  </si>
+  <si>
+    <t>contracts</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>add-on-selection</t>
+  </si>
+  <si>
+    <t>editable-contract</t>
+  </si>
+  <si>
+    <t>editable-funding-selection</t>
+  </si>
+  <si>
+    <t>substitute-modal</t>
   </si>
 </sst>
 </file>
@@ -377,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -410,8 +434,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -753,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="D5:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,37 +928,37 @@
       <c r="F10" s="19">
         <v>100</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="25">
         <v>100</v>
       </c>
       <c r="H10" s="20">
         <v>100</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D11" s="10"/>
       <c r="E11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="25">
         <v>38</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="25">
         <v>12</v>
       </c>
       <c r="H11" s="20">
         <v>49</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
@@ -959,35 +981,71 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D13" s="12"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="D13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="21">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="22">
+        <v>38</v>
+      </c>
+      <c r="I13" s="6">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6">
+        <v>5</v>
+      </c>
+      <c r="K13" s="6">
+        <v>14</v>
+      </c>
+      <c r="L13" s="6">
+        <v>25</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="E14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="19">
+        <v>100</v>
+      </c>
+      <c r="G14" s="25">
+        <v>100</v>
+      </c>
+      <c r="H14" s="20">
+        <v>100</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D15" s="10"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="E15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="25">
+        <v>39</v>
+      </c>
+      <c r="G15" s="25">
+        <v>14</v>
+      </c>
+      <c r="H15" s="20">
+        <v>49</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -995,35 +1053,69 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D16" s="12"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="19">
+        <v>53</v>
+      </c>
+      <c r="G16" s="25">
+        <v>53</v>
+      </c>
+      <c r="H16" s="20">
+        <v>62</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D17" s="11"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="D17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="21">
+        <v>100</v>
+      </c>
+      <c r="G17" s="2">
+        <v>100</v>
+      </c>
+      <c r="H17" s="22">
+        <v>100</v>
+      </c>
+      <c r="I17" s="6">
+        <v>7</v>
+      </c>
+      <c r="J17" s="6">
+        <v>6</v>
+      </c>
+      <c r="K17" s="6">
+        <v>11</v>
+      </c>
+      <c r="L17" s="6">
+        <v>13</v>
+      </c>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D18" s="10"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="20"/>
+      <c r="E18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="25">
+        <v>42</v>
+      </c>
+      <c r="G18" s="25">
+        <v>23</v>
+      </c>
+      <c r="H18" s="20">
+        <v>54</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1031,35 +1123,59 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="12"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="19">
+        <v>51</v>
+      </c>
+      <c r="G19" s="25">
+        <v>23</v>
+      </c>
+      <c r="H19" s="20">
+        <v>57</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D20" s="11"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
+        <v>59</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D21" s="10"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="20"/>
+      <c r="E21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="19">
+        <v>31</v>
+      </c>
+      <c r="G21" s="25">
+        <v>23</v>
+      </c>
+      <c r="H21" s="20">
+        <v>41</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -1068,10 +1184,18 @@
     </row>
     <row r="22" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="12"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="24"/>
+      <c r="E22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="23">
+        <v>41</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="24">
+        <v>53</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -1079,59 +1203,109 @@
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D23" s="11"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="D23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="21">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2">
+        <v>100</v>
+      </c>
+      <c r="H23" s="22">
+        <v>100</v>
+      </c>
+      <c r="I23" s="6">
+        <v>5</v>
+      </c>
+      <c r="J23" s="6">
+        <v>3</v>
+      </c>
+      <c r="K23" s="6">
+        <v>9</v>
+      </c>
+      <c r="L23" s="6">
+        <v>12</v>
+      </c>
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D24" s="12"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="25">
+        <v>45</v>
+      </c>
+      <c r="G24" s="25">
+        <v>29</v>
+      </c>
+      <c r="H24" s="20">
+        <v>55</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D25" s="11"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="19">
+        <v>31</v>
+      </c>
+      <c r="G25" s="25">
+        <v>7</v>
+      </c>
+      <c r="H25" s="20">
+        <v>44</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D26" s="12"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="25">
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
+        <v>59</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D27" s="10"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="20"/>
+      <c r="E27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="19">
+        <v>19</v>
+      </c>
+      <c r="G27" s="25">
+        <v>13</v>
+      </c>
+      <c r="H27" s="20">
+        <v>29</v>
+      </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -1139,16 +1313,24 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D28" s="10"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="23">
+        <v>31</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="24">
+        <v>41</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D29" s="10"/>

--- a/generated-tests/pincher/frontend/direct/metrics.xlsx
+++ b/generated-tests/pincher/frontend/direct/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0CD424-6835-4B7B-8082-C7FD4E18F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2BCACD-FFFA-493D-9A36-25C97ABD69CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
   <si>
     <t>Test</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>substitute-modal</t>
+  </si>
+  <si>
+    <t>contract-2.spec</t>
+  </si>
+  <si>
+    <t>add-on-s-2.spec</t>
+  </si>
+  <si>
+    <t>editable-2.spec</t>
+  </si>
+  <si>
+    <t>substitu-2.spec</t>
   </si>
 </sst>
 </file>
@@ -776,7 +788,7 @@
   <dimension ref="D5:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1216,7 @@
     </row>
     <row r="23" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D23" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>20</v>

--- a/generated-tests/pincher/frontend/direct/metrics.xlsx
+++ b/generated-tests/pincher/frontend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2BCACD-FFFA-493D-9A36-25C97ABD69CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E535AB-2CEB-4B0F-845E-2B1C1E691B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Test</t>
   </si>
@@ -119,13 +119,19 @@
     <t>contract-2.spec</t>
   </si>
   <si>
-    <t>add-on-s-2.spec</t>
-  </si>
-  <si>
-    <t>editable-2.spec</t>
-  </si>
-  <si>
-    <t>substitu-2.spec</t>
+    <t>financial-plan-1.spec</t>
+  </si>
+  <si>
+    <t>projects</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>financial-plan</t>
+  </si>
+  <si>
+    <t>financial-plan-2.spec</t>
   </si>
 </sst>
 </file>
@@ -785,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="D5:M32"/>
+  <dimension ref="D5:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,23 +1351,49 @@
       <c r="M28" s="7"/>
     </row>
     <row r="29" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D29" s="10"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="D29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="21">
+        <v>100</v>
+      </c>
+      <c r="G29" s="2">
+        <v>54</v>
+      </c>
+      <c r="H29" s="22">
+        <v>100</v>
+      </c>
+      <c r="I29" s="6">
+        <v>5</v>
+      </c>
+      <c r="J29" s="6">
+        <v>3</v>
+      </c>
+      <c r="K29" s="6">
+        <v>10</v>
+      </c>
+      <c r="L29" s="6">
+        <v>14</v>
+      </c>
+      <c r="M29" s="6"/>
     </row>
     <row r="30" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D30" s="10"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="20"/>
+      <c r="E30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="25">
+        <v>100</v>
+      </c>
+      <c r="G30" s="25">
+        <v>100</v>
+      </c>
+      <c r="H30" s="20">
+        <v>100</v>
+      </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -1370,10 +1402,18 @@
     </row>
     <row r="31" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D31" s="10"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="20"/>
+      <c r="E31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="19">
+        <v>54</v>
+      </c>
+      <c r="G31" s="25">
+        <v>37</v>
+      </c>
+      <c r="H31" s="20">
+        <v>60</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -1381,16 +1421,206 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D32" s="10"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="D32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="21">
+        <v>48</v>
+      </c>
+      <c r="G32" s="2">
+        <v>19</v>
+      </c>
+      <c r="H32" s="22">
+        <v>60</v>
+      </c>
+      <c r="I32" s="6">
+        <v>7</v>
+      </c>
+      <c r="J32" s="6">
+        <v>5</v>
+      </c>
+      <c r="K32" s="6">
+        <v>7</v>
+      </c>
+      <c r="L32" s="6">
+        <v>14</v>
+      </c>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D33" s="10"/>
+      <c r="E33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="25">
+        <v>100</v>
+      </c>
+      <c r="G33" s="25">
+        <v>100</v>
+      </c>
+      <c r="H33" s="20">
+        <v>100</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D34" s="12"/>
+      <c r="E34" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="23">
+        <v>34</v>
+      </c>
+      <c r="G34" s="3">
+        <v>20</v>
+      </c>
+      <c r="H34" s="24">
+        <v>46</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D35" s="10"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D36" s="10"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D37" s="10"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D39" s="10"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D41" s="10"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D42" s="10"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D43" s="10"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D44" s="10"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D45" s="10"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/generated-tests/pincher/frontend/direct/metrics.xlsx
+++ b/generated-tests/pincher/frontend/direct/metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E535AB-2CEB-4B0F-845E-2B1C1E691B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4017286B-C074-4756-AB71-646925482721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Test</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>financial-plan-2.spec</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
   </si>
 </sst>
 </file>
@@ -162,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +199,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -419,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -452,6 +464,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -791,20 +810,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="D5:M45"/>
+  <dimension ref="C3:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="13" width="15.7109375" customWidth="1"/>
+    <col min="6" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O3" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="36"/>
+    </row>
+    <row r="5" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="37"/>
       <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
@@ -835,8 +864,18 @@
       <c r="M5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="37"/>
       <c r="D6" s="10"/>
       <c r="E6" s="14"/>
       <c r="F6" s="19"/>
@@ -847,8 +886,12 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N6" s="19"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="37"/>
       <c r="D7" s="26" t="s">
         <v>10</v>
       </c>
@@ -877,8 +920,21 @@
         <v>8</v>
       </c>
       <c r="M7" s="31"/>
-    </row>
-    <row r="8" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N7" s="28">
+        <f>ROUND(AVERAGE(F7),0)</f>
+        <v>84</v>
+      </c>
+      <c r="O7" s="29">
+        <f>ROUND(AVERAGE(G7),0)</f>
+        <v>68</v>
+      </c>
+      <c r="P7" s="30">
+        <f>ROUND(AVERAGE(H7),0)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="37"/>
       <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
@@ -907,8 +963,21 @@
         <v>8</v>
       </c>
       <c r="M8" s="31"/>
-    </row>
-    <row r="9" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N8" s="28">
+        <f>ROUND(AVERAGE(F8),0)</f>
+        <v>71</v>
+      </c>
+      <c r="O8" s="29">
+        <f>ROUND(AVERAGE(G8),0)</f>
+        <v>45</v>
+      </c>
+      <c r="P8" s="30">
+        <f>ROUND(AVERAGE(H8),0)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="37"/>
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
@@ -937,8 +1006,21 @@
         <v>15</v>
       </c>
       <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N9" s="21">
+        <f>ROUND(AVERAGE(F9:F12),0)</f>
+        <v>40</v>
+      </c>
+      <c r="O9" s="2">
+        <f>ROUND(AVERAGE(G9:G12),0)</f>
+        <v>29</v>
+      </c>
+      <c r="P9" s="22">
+        <f>ROUND(AVERAGE(H9:H12),0)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
       <c r="D10" s="10"/>
       <c r="E10" s="14" t="s">
         <v>17</v>
@@ -957,8 +1039,12 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N10" s="19"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="37"/>
       <c r="D11" s="10"/>
       <c r="E11" s="14" t="s">
         <v>15</v>
@@ -976,9 +1062,13 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M11" s="32"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="37"/>
       <c r="D12" s="10"/>
       <c r="E12" s="14" t="s">
         <v>16</v>
@@ -997,8 +1087,12 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N12" s="19"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="37"/>
       <c r="D13" s="11" t="s">
         <v>18</v>
       </c>
@@ -1018,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="J13" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13" s="6">
         <v>14</v>
@@ -1029,8 +1123,21 @@
       <c r="M13" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N13" s="21">
+        <f>ROUND(AVERAGE(F13:F16),0)</f>
+        <v>55</v>
+      </c>
+      <c r="O13" s="2">
+        <f>ROUND(AVERAGE(G13:G16),0)</f>
+        <v>43</v>
+      </c>
+      <c r="P13" s="22">
+        <f>ROUND(AVERAGE(H13:H16),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="37"/>
       <c r="D14" s="10"/>
       <c r="E14" s="14" t="s">
         <v>17</v>
@@ -1049,8 +1156,12 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N14" s="19"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="37"/>
       <c r="D15" s="10"/>
       <c r="E15" s="14" t="s">
         <v>15</v>
@@ -1068,9 +1179,13 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M15" s="32"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="37"/>
       <c r="D16" s="10"/>
       <c r="E16" s="14" t="s">
         <v>16</v>
@@ -1089,8 +1204,12 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N16" s="19"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="37"/>
       <c r="D17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1119,8 +1238,21 @@
         <v>13</v>
       </c>
       <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N17" s="21">
+        <f>ROUND(AVERAGE(F17:F22),0)</f>
+        <v>44</v>
+      </c>
+      <c r="O17" s="2">
+        <f>ROUND(AVERAGE(G17:G22),0)</f>
+        <v>28</v>
+      </c>
+      <c r="P17" s="22">
+        <f>ROUND(AVERAGE(H17:H22),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="37"/>
       <c r="D18" s="10"/>
       <c r="E18" s="14" t="s">
         <v>21</v>
@@ -1138,9 +1270,13 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M18" s="32"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="20"/>
+    </row>
+    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="37"/>
       <c r="D19" s="10"/>
       <c r="E19" s="14" t="s">
         <v>22</v>
@@ -1159,8 +1295,12 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N19" s="19"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="20"/>
+    </row>
+    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="37"/>
       <c r="D20" s="10"/>
       <c r="E20" s="14" t="s">
         <v>23</v>
@@ -1178,9 +1318,13 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M20" s="32"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="20"/>
+    </row>
+    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="37"/>
       <c r="D21" s="10"/>
       <c r="E21" s="14" t="s">
         <v>24</v>
@@ -1199,8 +1343,12 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N21" s="19"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="20"/>
+    </row>
+    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="37"/>
       <c r="D22" s="12"/>
       <c r="E22" s="16" t="s">
         <v>25</v>
@@ -1219,8 +1367,12 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N22" s="23"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="24"/>
+    </row>
+    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="37"/>
       <c r="D23" s="11" t="s">
         <v>26</v>
       </c>
@@ -1249,8 +1401,21 @@
         <v>12</v>
       </c>
       <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N23" s="21">
+        <f>ROUND(AVERAGE(F23:F28),0)</f>
+        <v>38</v>
+      </c>
+      <c r="O23" s="2">
+        <f>ROUND(AVERAGE(G23:G28),0)</f>
+        <v>25</v>
+      </c>
+      <c r="P23" s="22">
+        <f>ROUND(AVERAGE(H23:H28),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="37"/>
       <c r="D24" s="10"/>
       <c r="E24" s="14" t="s">
         <v>21</v>
@@ -1268,9 +1433,13 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M24" s="32"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="20"/>
+    </row>
+    <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="37"/>
       <c r="D25" s="10"/>
       <c r="E25" s="14" t="s">
         <v>22</v>
@@ -1289,8 +1458,12 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N25" s="19"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="20"/>
+    </row>
+    <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="37"/>
       <c r="D26" s="10"/>
       <c r="E26" s="14" t="s">
         <v>23</v>
@@ -1308,9 +1481,13 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M26" s="32"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="20"/>
+    </row>
+    <row r="27" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="37"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14" t="s">
         <v>24</v>
@@ -1329,8 +1506,12 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N27" s="19"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="20"/>
+    </row>
+    <row r="28" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="37"/>
       <c r="D28" s="12"/>
       <c r="E28" s="16" t="s">
         <v>25</v>
@@ -1349,8 +1530,12 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N28" s="23"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="24"/>
+    </row>
+    <row r="29" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="37"/>
       <c r="D29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1379,8 +1564,21 @@
         <v>14</v>
       </c>
       <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N29" s="21">
+        <f>ROUND(AVERAGE(F29:F31),0)</f>
+        <v>85</v>
+      </c>
+      <c r="O29" s="2">
+        <f>ROUND(AVERAGE(G29:G31),0)</f>
+        <v>64</v>
+      </c>
+      <c r="P29" s="22">
+        <f>ROUND(AVERAGE(H29:H31),0)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="37"/>
       <c r="D30" s="10"/>
       <c r="E30" s="14" t="s">
         <v>29</v>
@@ -1398,9 +1596,13 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M30" s="32"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="20"/>
+    </row>
+    <row r="31" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="37"/>
       <c r="D31" s="10"/>
       <c r="E31" s="14" t="s">
         <v>30</v>
@@ -1419,8 +1621,12 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N31" s="19"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="20"/>
+    </row>
+    <row r="32" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="37"/>
       <c r="D32" s="11" t="s">
         <v>31</v>
       </c>
@@ -1449,8 +1655,21 @@
         <v>14</v>
       </c>
       <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N32" s="21">
+        <f>ROUND(AVERAGE(F32:F34),0)</f>
+        <v>61</v>
+      </c>
+      <c r="O32" s="2">
+        <f>ROUND(AVERAGE(G32:G34),0)</f>
+        <v>46</v>
+      </c>
+      <c r="P32" s="22">
+        <f>ROUND(AVERAGE(H32:H34),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="37"/>
       <c r="D33" s="10"/>
       <c r="E33" s="14" t="s">
         <v>29</v>
@@ -1468,9 +1687,13 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M33" s="32"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="20"/>
+    </row>
+    <row r="34" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="37"/>
       <c r="D34" s="12"/>
       <c r="E34" s="16" t="s">
         <v>30</v>
@@ -1489,8 +1712,12 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N34" s="23"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="24"/>
+    </row>
+    <row r="35" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="37"/>
       <c r="D35" s="10"/>
       <c r="E35" s="14"/>
       <c r="F35" s="25"/>
@@ -1500,33 +1727,70 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D36" s="10"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D37" s="10"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M35" s="33"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="20"/>
+    </row>
+    <row r="36" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31">
+        <f>SUM(I7:I32)</f>
+        <v>43</v>
+      </c>
+      <c r="J36" s="31">
+        <f>SUM(J7:J32)</f>
+        <v>33</v>
+      </c>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="30"/>
+    </row>
+    <row r="37" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31">
+        <f>ROUND(AVERAGE(K7:K32),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L37" s="31">
+        <f>ROUND(AVERAGE(L7:L32),0)</f>
+        <v>14</v>
+      </c>
+      <c r="M37" s="33"/>
+      <c r="N37" s="29">
+        <f>ROUND(AVERAGE(N7:N32),0)</f>
+        <v>60</v>
+      </c>
+      <c r="O37" s="29">
+        <f>ROUND(AVERAGE(O7:O32),0)</f>
+        <v>44</v>
+      </c>
+      <c r="P37" s="30">
+        <f>ROUND(AVERAGE(P7:P32),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C38" s="37"/>
       <c r="D38" s="10"/>
       <c r="E38" s="14"/>
       <c r="F38" s="25"/>
@@ -1536,9 +1800,13 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M38" s="34"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+    </row>
+    <row r="39" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C39" s="37"/>
       <c r="D39" s="10"/>
       <c r="E39" s="14"/>
       <c r="F39" s="25"/>
@@ -1548,9 +1816,13 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M39" s="32"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+    </row>
+    <row r="40" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C40" s="37"/>
       <c r="D40" s="10"/>
       <c r="E40" s="14"/>
       <c r="F40" s="25"/>
@@ -1560,9 +1832,13 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M40" s="32"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+    </row>
+    <row r="41" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C41" s="37"/>
       <c r="D41" s="10"/>
       <c r="E41" s="14"/>
       <c r="F41" s="25"/>
@@ -1572,9 +1848,13 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M41" s="32"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+    </row>
+    <row r="42" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C42" s="37"/>
       <c r="D42" s="10"/>
       <c r="E42" s="14"/>
       <c r="F42" s="25"/>
@@ -1584,9 +1864,13 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M42" s="32"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+    </row>
+    <row r="43" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C43" s="37"/>
       <c r="D43" s="10"/>
       <c r="E43" s="14"/>
       <c r="F43" s="25"/>
@@ -1596,9 +1880,13 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M43" s="32"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+    </row>
+    <row r="44" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C44" s="37"/>
       <c r="D44" s="10"/>
       <c r="E44" s="14"/>
       <c r="F44" s="25"/>
@@ -1608,9 +1896,13 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M44" s="32"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+    </row>
+    <row r="45" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C45" s="37"/>
       <c r="D45" s="10"/>
       <c r="E45" s="14"/>
       <c r="F45" s="25"/>
@@ -1620,7 +1912,10 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/generated-tests/pincher/frontend/direct/metrics.xlsx
+++ b/generated-tests/pincher/frontend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4017286B-C074-4756-AB71-646925482721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DFC4A5-7D41-48C4-830E-CAF8D5206F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Test</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>Durchschnitt</t>
+  </si>
+  <si>
+    <t>abgedeckt</t>
+  </si>
+  <si>
+    <t>insgesamt</t>
+  </si>
+  <si>
+    <t>fehlend</t>
+  </si>
+  <si>
+    <t>Pfade</t>
   </si>
 </sst>
 </file>
@@ -431,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -468,9 +480,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -810,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="C3:P45"/>
+  <dimension ref="C3:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,19 +834,20 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="16" width="15.7109375" customWidth="1"/>
+    <col min="6" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O3" s="35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O4" s="36"/>
-    </row>
-    <row r="5" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="37"/>
+      <c r="R3" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="36"/>
       <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
@@ -873,9 +887,18 @@
       <c r="P5" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="37"/>
+      <c r="Q5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="36"/>
       <c r="D6" s="10"/>
       <c r="E6" s="14"/>
       <c r="F6" s="19"/>
@@ -889,9 +912,12 @@
       <c r="N6" s="19"/>
       <c r="O6" s="25"/>
       <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C7" s="37"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="36"/>
       <c r="D7" s="26" t="s">
         <v>10</v>
       </c>
@@ -921,20 +947,23 @@
       </c>
       <c r="M7" s="31"/>
       <c r="N7" s="28">
-        <f>ROUND(AVERAGE(F7),0)</f>
+        <f t="shared" ref="N7:P8" si="0">ROUND(AVERAGE(F7),0)</f>
         <v>84</v>
       </c>
       <c r="O7" s="29">
-        <f>ROUND(AVERAGE(G7),0)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="P7" s="30">
-        <f>ROUND(AVERAGE(H7),0)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C8" s="37"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+    </row>
+    <row r="8" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="36"/>
       <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
@@ -964,20 +993,23 @@
       </c>
       <c r="M8" s="31"/>
       <c r="N8" s="28">
-        <f>ROUND(AVERAGE(F8),0)</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="O8" s="29">
-        <f>ROUND(AVERAGE(G8),0)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="P8" s="30">
-        <f>ROUND(AVERAGE(H8),0)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C9" s="37"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+    </row>
+    <row r="9" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="36"/>
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
@@ -1018,9 +1050,12 @@
         <f>ROUND(AVERAGE(H9:H12),0)</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C10" s="37"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="36"/>
       <c r="D10" s="10"/>
       <c r="E10" s="14" t="s">
         <v>17</v>
@@ -1042,9 +1077,12 @@
       <c r="N10" s="19"/>
       <c r="O10" s="25"/>
       <c r="P10" s="20"/>
-    </row>
-    <row r="11" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C11" s="37"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="36"/>
       <c r="D11" s="10"/>
       <c r="E11" s="14" t="s">
         <v>15</v>
@@ -1066,9 +1104,12 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="20"/>
-    </row>
-    <row r="12" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="37"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="36"/>
       <c r="D12" s="10"/>
       <c r="E12" s="14" t="s">
         <v>16</v>
@@ -1090,9 +1131,12 @@
       <c r="N12" s="19"/>
       <c r="O12" s="25"/>
       <c r="P12" s="20"/>
-    </row>
-    <row r="13" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="37"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="36"/>
       <c r="D13" s="11" t="s">
         <v>18</v>
       </c>
@@ -1112,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="J13" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="6">
         <v>14</v>
@@ -1135,9 +1179,12 @@
         <f>ROUND(AVERAGE(H13:H16),0)</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="37"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="36"/>
       <c r="D14" s="10"/>
       <c r="E14" s="14" t="s">
         <v>17</v>
@@ -1159,9 +1206,12 @@
       <c r="N14" s="19"/>
       <c r="O14" s="25"/>
       <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="37"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="36"/>
       <c r="D15" s="10"/>
       <c r="E15" s="14" t="s">
         <v>15</v>
@@ -1183,9 +1233,12 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="20"/>
-    </row>
-    <row r="16" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="37"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="36"/>
       <c r="D16" s="10"/>
       <c r="E16" s="14" t="s">
         <v>16</v>
@@ -1207,9 +1260,12 @@
       <c r="N16" s="19"/>
       <c r="O16" s="25"/>
       <c r="P16" s="20"/>
-    </row>
-    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="37"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="36"/>
       <c r="D17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1250,9 +1306,12 @@
         <f>ROUND(AVERAGE(H17:H22),0)</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="37"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="36"/>
       <c r="D18" s="10"/>
       <c r="E18" s="14" t="s">
         <v>21</v>
@@ -1274,9 +1333,12 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
       <c r="P18" s="20"/>
-    </row>
-    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C19" s="37"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="36"/>
       <c r="D19" s="10"/>
       <c r="E19" s="14" t="s">
         <v>22</v>
@@ -1298,9 +1360,12 @@
       <c r="N19" s="19"/>
       <c r="O19" s="25"/>
       <c r="P19" s="20"/>
-    </row>
-    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C20" s="37"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="36"/>
       <c r="D20" s="10"/>
       <c r="E20" s="14" t="s">
         <v>23</v>
@@ -1322,9 +1387,12 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="20"/>
-    </row>
-    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C21" s="37"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="36"/>
       <c r="D21" s="10"/>
       <c r="E21" s="14" t="s">
         <v>24</v>
@@ -1346,9 +1414,12 @@
       <c r="N21" s="19"/>
       <c r="O21" s="25"/>
       <c r="P21" s="20"/>
-    </row>
-    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C22" s="37"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="36"/>
       <c r="D22" s="12"/>
       <c r="E22" s="16" t="s">
         <v>25</v>
@@ -1370,9 +1441,12 @@
       <c r="N22" s="23"/>
       <c r="O22" s="3"/>
       <c r="P22" s="24"/>
-    </row>
-    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C23" s="37"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="36"/>
       <c r="D23" s="11" t="s">
         <v>26</v>
       </c>
@@ -1413,9 +1487,12 @@
         <f>ROUND(AVERAGE(H23:H28),0)</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C24" s="37"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="36"/>
       <c r="D24" s="10"/>
       <c r="E24" s="14" t="s">
         <v>21</v>
@@ -1437,9 +1514,12 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="20"/>
-    </row>
-    <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C25" s="37"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="36"/>
       <c r="D25" s="10"/>
       <c r="E25" s="14" t="s">
         <v>22</v>
@@ -1461,9 +1541,12 @@
       <c r="N25" s="19"/>
       <c r="O25" s="25"/>
       <c r="P25" s="20"/>
-    </row>
-    <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="37"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="36"/>
       <c r="D26" s="10"/>
       <c r="E26" s="14" t="s">
         <v>23</v>
@@ -1485,9 +1568,12 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
       <c r="P26" s="20"/>
-    </row>
-    <row r="27" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C27" s="37"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="36"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14" t="s">
         <v>24</v>
@@ -1509,9 +1595,12 @@
       <c r="N27" s="19"/>
       <c r="O27" s="25"/>
       <c r="P27" s="20"/>
-    </row>
-    <row r="28" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C28" s="37"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="36"/>
       <c r="D28" s="12"/>
       <c r="E28" s="16" t="s">
         <v>25</v>
@@ -1533,9 +1622,12 @@
       <c r="N28" s="23"/>
       <c r="O28" s="3"/>
       <c r="P28" s="24"/>
-    </row>
-    <row r="29" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C29" s="37"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="36"/>
       <c r="D29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1576,9 +1668,12 @@
         <f>ROUND(AVERAGE(H29:H31),0)</f>
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C30" s="37"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="36"/>
       <c r="D30" s="10"/>
       <c r="E30" s="14" t="s">
         <v>29</v>
@@ -1600,9 +1695,12 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="20"/>
-    </row>
-    <row r="31" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C31" s="37"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="36"/>
       <c r="D31" s="10"/>
       <c r="E31" s="14" t="s">
         <v>30</v>
@@ -1624,9 +1722,12 @@
       <c r="N31" s="19"/>
       <c r="O31" s="25"/>
       <c r="P31" s="20"/>
-    </row>
-    <row r="32" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C32" s="37"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="36"/>
       <c r="D32" s="11" t="s">
         <v>31</v>
       </c>
@@ -1667,9 +1768,12 @@
         <f>ROUND(AVERAGE(H32:H34),0)</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C33" s="37"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+    </row>
+    <row r="33" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="36"/>
       <c r="D33" s="10"/>
       <c r="E33" s="14" t="s">
         <v>29</v>
@@ -1691,9 +1795,12 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="20"/>
-    </row>
-    <row r="34" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C34" s="37"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="36"/>
       <c r="D34" s="12"/>
       <c r="E34" s="16" t="s">
         <v>30</v>
@@ -1715,9 +1822,12 @@
       <c r="N34" s="23"/>
       <c r="O34" s="3"/>
       <c r="P34" s="24"/>
-    </row>
-    <row r="35" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C35" s="37"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+    </row>
+    <row r="35" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="36"/>
       <c r="D35" s="10"/>
       <c r="E35" s="14"/>
       <c r="F35" s="25"/>
@@ -1731,9 +1841,12 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
       <c r="P35" s="20"/>
-    </row>
-    <row r="36" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C36" s="38" t="s">
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="26"/>
@@ -1747,7 +1860,7 @@
       </c>
       <c r="J36" s="31">
         <f>SUM(J7:J32)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="31"/>
@@ -1755,9 +1868,12 @@
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
       <c r="P36" s="30"/>
-    </row>
-    <row r="37" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C37" s="38" t="s">
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+    </row>
+    <row r="37" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="37" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="26"/>
@@ -1788,9 +1904,12 @@
         <f>ROUND(AVERAGE(P7:P32),0)</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C38" s="37"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+    </row>
+    <row r="38" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C38" s="36"/>
       <c r="D38" s="10"/>
       <c r="E38" s="14"/>
       <c r="F38" s="25"/>
@@ -1804,9 +1923,12 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
-    </row>
-    <row r="39" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C39" s="37"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+    </row>
+    <row r="39" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C39" s="36"/>
       <c r="D39" s="10"/>
       <c r="E39" s="14"/>
       <c r="F39" s="25"/>
@@ -1820,9 +1942,12 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
-    </row>
-    <row r="40" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C40" s="37"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+    </row>
+    <row r="40" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C40" s="36"/>
       <c r="D40" s="10"/>
       <c r="E40" s="14"/>
       <c r="F40" s="25"/>
@@ -1836,9 +1961,12 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
-    </row>
-    <row r="41" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C41" s="37"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+    </row>
+    <row r="41" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C41" s="36"/>
       <c r="D41" s="10"/>
       <c r="E41" s="14"/>
       <c r="F41" s="25"/>
@@ -1852,9 +1980,12 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
-    </row>
-    <row r="42" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C42" s="37"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+    </row>
+    <row r="42" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C42" s="36"/>
       <c r="D42" s="10"/>
       <c r="E42" s="14"/>
       <c r="F42" s="25"/>
@@ -1868,9 +1999,12 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
-    </row>
-    <row r="43" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C43" s="37"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+    </row>
+    <row r="43" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C43" s="36"/>
       <c r="D43" s="10"/>
       <c r="E43" s="14"/>
       <c r="F43" s="25"/>
@@ -1884,9 +2018,12 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
-    </row>
-    <row r="44" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C44" s="37"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+    </row>
+    <row r="44" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C44" s="36"/>
       <c r="D44" s="10"/>
       <c r="E44" s="14"/>
       <c r="F44" s="25"/>
@@ -1900,9 +2037,12 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
-    </row>
-    <row r="45" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C45" s="37"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+    </row>
+    <row r="45" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C45" s="36"/>
       <c r="D45" s="10"/>
       <c r="E45" s="14"/>
       <c r="F45" s="25"/>
@@ -1916,6 +2056,9 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/generated-tests/pincher/frontend/direct/metrics.xlsx
+++ b/generated-tests/pincher/frontend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DFC4A5-7D41-48C4-830E-CAF8D5206F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF77AC2-2595-4ACF-AB2E-58724FF22A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Test</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>Pfade</t>
+  </si>
+  <si>
+    <t>Wesentliche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Person overview, Person list</t>
+  </si>
+  <si>
+    <t>Contract list</t>
   </si>
 </sst>
 </file>
@@ -825,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="C3:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,6 +853,9 @@
     <row r="3" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O3" s="35" t="s">
         <v>33</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="R3" s="35" t="s">
         <v>37</v>
@@ -913,7 +928,9 @@
       <c r="O6" s="25"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="R6" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -958,8 +975,12 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
+      <c r="Q7" s="31">
+        <v>2</v>
+      </c>
+      <c r="R7" s="31">
+        <v>2</v>
+      </c>
       <c r="S7" s="31"/>
     </row>
     <row r="8" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1004,8 +1025,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
+      <c r="Q8" s="31">
+        <v>2</v>
+      </c>
+      <c r="R8" s="31">
+        <v>2</v>
+      </c>
       <c r="S8" s="31"/>
     </row>
     <row r="9" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1050,9 +1075,15 @@
         <f>ROUND(AVERAGE(H9:H12),0)</f>
         <v>46</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="Q9" s="6">
+        <v>2</v>
+      </c>
+      <c r="R9" s="6">
+        <v>4</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="36"/>
@@ -1179,8 +1210,12 @@
         <f>ROUND(AVERAGE(H13:H16),0)</f>
         <v>62</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="Q13" s="6">
+        <v>4</v>
+      </c>
+      <c r="R13" s="6">
+        <v>4</v>
+      </c>
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1306,9 +1341,15 @@
         <f>ROUND(AVERAGE(H17:H22),0)</f>
         <v>61</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
+      <c r="Q17" s="6">
+        <v>2</v>
+      </c>
+      <c r="R17" s="6">
+        <v>3</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C18" s="36"/>
@@ -1487,8 +1528,12 @@
         <f>ROUND(AVERAGE(H23:H28),0)</f>
         <v>55</v>
       </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="Q23" s="6">
+        <v>3</v>
+      </c>
+      <c r="R23" s="6">
+        <v>3</v>
+      </c>
       <c r="S23" s="6"/>
     </row>
     <row r="24" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1668,8 +1713,12 @@
         <f>ROUND(AVERAGE(H29:H31),0)</f>
         <v>87</v>
       </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
+      <c r="Q29" s="6">
+        <v>2</v>
+      </c>
+      <c r="R29" s="6">
+        <v>2</v>
+      </c>
       <c r="S29" s="6"/>
     </row>
     <row r="30" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1768,8 +1817,12 @@
         <f>ROUND(AVERAGE(H32:H34),0)</f>
         <v>69</v>
       </c>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
+      <c r="Q32" s="6">
+        <v>2</v>
+      </c>
+      <c r="R32" s="6">
+        <v>2</v>
+      </c>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1868,8 +1921,14 @@
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
       <c r="P36" s="30"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
+      <c r="Q36" s="31">
+        <f>SUM(Q7:Q32)</f>
+        <v>19</v>
+      </c>
+      <c r="R36" s="31">
+        <f>SUM(R7:R32)</f>
+        <v>22</v>
+      </c>
       <c r="S36" s="31"/>
     </row>
     <row r="37" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">

--- a/generated-tests/pincher/frontend/direct/metrics.xlsx
+++ b/generated-tests/pincher/frontend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF77AC2-2595-4ACF-AB2E-58724FF22A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BD5396-02DE-4EC1-9412-C3B5E84CA033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Test</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Contract list</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -490,12 +496,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -835,15 +844,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="C3:S45"/>
+  <dimension ref="A3:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="18" width="15.7109375" customWidth="1"/>
@@ -851,18 +860,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="R3" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="36"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
@@ -913,7 +922,7 @@
       </c>
     </row>
     <row r="6" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="36"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="10"/>
       <c r="E6" s="14"/>
       <c r="F6" s="19"/>
@@ -934,7 +943,7 @@
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C7" s="36"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="26" t="s">
         <v>10</v>
       </c>
@@ -984,7 +993,7 @@
       <c r="S7" s="31"/>
     </row>
     <row r="8" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C8" s="36"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1043,7 @@
       <c r="S8" s="31"/>
     </row>
     <row r="9" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C9" s="36"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
@@ -1086,7 +1095,7 @@
       </c>
     </row>
     <row r="10" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C10" s="36"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="10"/>
       <c r="E10" s="14" t="s">
         <v>17</v>
@@ -1113,7 +1122,7 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C11" s="36"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="10"/>
       <c r="E11" s="14" t="s">
         <v>15</v>
@@ -1140,7 +1149,7 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="36"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="10"/>
       <c r="E12" s="14" t="s">
         <v>16</v>
@@ -1167,7 +1176,7 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="36"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="11" t="s">
         <v>18</v>
       </c>
@@ -1219,7 +1228,7 @@
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="36"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="10"/>
       <c r="E14" s="14" t="s">
         <v>17</v>
@@ -1246,7 +1255,7 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="36"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="10"/>
       <c r="E15" s="14" t="s">
         <v>15</v>
@@ -1273,7 +1282,7 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="36"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="10"/>
       <c r="E16" s="14" t="s">
         <v>16</v>
@@ -1300,7 +1309,7 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="36"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1352,7 +1361,7 @@
       </c>
     </row>
     <row r="18" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="36"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="10"/>
       <c r="E18" s="14" t="s">
         <v>21</v>
@@ -1379,7 +1388,7 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C19" s="36"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="10"/>
       <c r="E19" s="14" t="s">
         <v>22</v>
@@ -1406,7 +1415,7 @@
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C20" s="36"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="10"/>
       <c r="E20" s="14" t="s">
         <v>23</v>
@@ -1433,7 +1442,7 @@
       <c r="S20" s="8"/>
     </row>
     <row r="21" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C21" s="36"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="10"/>
       <c r="E21" s="14" t="s">
         <v>24</v>
@@ -1460,7 +1469,7 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C22" s="36"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="12"/>
       <c r="E22" s="16" t="s">
         <v>25</v>
@@ -1487,7 +1496,7 @@
       <c r="S22" s="7"/>
     </row>
     <row r="23" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C23" s="36"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="11" t="s">
         <v>26</v>
       </c>
@@ -1537,7 +1546,7 @@
       <c r="S23" s="6"/>
     </row>
     <row r="24" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C24" s="36"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="10"/>
       <c r="E24" s="14" t="s">
         <v>21</v>
@@ -1564,7 +1573,7 @@
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C25" s="36"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="10"/>
       <c r="E25" s="14" t="s">
         <v>22</v>
@@ -1591,7 +1600,7 @@
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="36"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="10"/>
       <c r="E26" s="14" t="s">
         <v>23</v>
@@ -1618,7 +1627,7 @@
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C27" s="36"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14" t="s">
         <v>24</v>
@@ -1645,7 +1654,7 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C28" s="36"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="12"/>
       <c r="E28" s="16" t="s">
         <v>25</v>
@@ -1672,7 +1681,7 @@
       <c r="S28" s="7"/>
     </row>
     <row r="29" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C29" s="36"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1731,7 @@
       <c r="S29" s="6"/>
     </row>
     <row r="30" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C30" s="36"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="10"/>
       <c r="E30" s="14" t="s">
         <v>29</v>
@@ -1749,7 +1758,7 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C31" s="36"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="10"/>
       <c r="E31" s="14" t="s">
         <v>30</v>
@@ -1776,7 +1785,7 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C32" s="36"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="11" t="s">
         <v>31</v>
       </c>
@@ -1825,8 +1834,8 @@
       </c>
       <c r="S32" s="6"/>
     </row>
-    <row r="33" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C33" s="36"/>
+    <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="35"/>
       <c r="D33" s="10"/>
       <c r="E33" s="14" t="s">
         <v>29</v>
@@ -1852,8 +1861,8 @@
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C34" s="36"/>
+    <row r="34" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="35"/>
       <c r="D34" s="12"/>
       <c r="E34" s="16" t="s">
         <v>30</v>
@@ -1879,8 +1888,8 @@
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C35" s="36"/>
+    <row r="35" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="35"/>
       <c r="D35" s="10"/>
       <c r="E35" s="14"/>
       <c r="F35" s="25"/>
@@ -1898,8 +1907,8 @@
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C36" s="37" t="s">
+    <row r="36" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="26"/>
@@ -1931,8 +1940,8 @@
       </c>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C37" s="37" t="s">
+    <row r="37" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="26"/>
@@ -1967,46 +1976,77 @@
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C38" s="36"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-    </row>
-    <row r="39" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C39" s="36"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
+    <row r="38" spans="1:20" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7">
+        <f>MEDIAN(K7:K32)</f>
+        <v>9.5</v>
+      </c>
+      <c r="L38" s="7">
+        <f>MEDIAN(L7:L32)</f>
+        <v>13.5</v>
+      </c>
+      <c r="M38" s="33"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="42"/>
+    </row>
+    <row r="39" spans="1:20" s="41" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31">
+        <f>ROUND(_xlfn.STDEV.P(K7:K32),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L39" s="31">
+        <f>ROUND(_xlfn.STDEV.P(L7:L32),1)</f>
+        <v>5</v>
+      </c>
+      <c r="M39" s="33"/>
+      <c r="N39" s="29">
+        <f>ROUND(_xlfn.STDEV.P(N7:N32),1)</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="O39" s="29">
+        <f>ROUND(_xlfn.STDEV.P(O7:O32),1)</f>
+        <v>15.1</v>
+      </c>
+      <c r="P39" s="29">
+        <f>ROUND(_xlfn.STDEV.P(P7:P32),1)</f>
+        <v>14.3</v>
+      </c>
       <c r="Q39" s="39"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-    </row>
-    <row r="40" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C40" s="36"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="42"/>
+    </row>
+    <row r="40" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C40" s="35"/>
       <c r="D40" s="10"/>
       <c r="E40" s="14"/>
       <c r="F40" s="25"/>
@@ -2020,12 +2060,12 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
-      <c r="Q40" s="39"/>
+      <c r="Q40" s="37"/>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
     </row>
-    <row r="41" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C41" s="36"/>
+    <row r="41" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C41" s="35"/>
       <c r="D41" s="10"/>
       <c r="E41" s="14"/>
       <c r="F41" s="25"/>
@@ -2039,12 +2079,12 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
-      <c r="Q41" s="39"/>
+      <c r="Q41" s="37"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
     </row>
-    <row r="42" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C42" s="36"/>
+    <row r="42" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C42" s="35"/>
       <c r="D42" s="10"/>
       <c r="E42" s="14"/>
       <c r="F42" s="25"/>
@@ -2058,12 +2098,12 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
-      <c r="Q42" s="39"/>
+      <c r="Q42" s="37"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
     </row>
-    <row r="43" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C43" s="36"/>
+    <row r="43" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C43" s="35"/>
       <c r="D43" s="10"/>
       <c r="E43" s="14"/>
       <c r="F43" s="25"/>
@@ -2077,12 +2117,12 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
-      <c r="Q43" s="39"/>
+      <c r="Q43" s="37"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
     </row>
-    <row r="44" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C44" s="36"/>
+    <row r="44" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C44" s="35"/>
       <c r="D44" s="10"/>
       <c r="E44" s="14"/>
       <c r="F44" s="25"/>
@@ -2096,12 +2136,12 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
-      <c r="Q44" s="39"/>
+      <c r="Q44" s="37"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
     </row>
-    <row r="45" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C45" s="36"/>
+    <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C45" s="35"/>
       <c r="D45" s="10"/>
       <c r="E45" s="14"/>
       <c r="F45" s="25"/>
@@ -2115,7 +2155,7 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
-      <c r="Q45" s="39"/>
+      <c r="Q45" s="37"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
     </row>

--- a/generated-tests/pincher/frontend/direct/metrics.xlsx
+++ b/generated-tests/pincher/frontend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BD5396-02DE-4EC1-9412-C3B5E84CA033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67672ADD-97EA-402D-BADB-9773BB46F108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -504,7 +504,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -846,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="A3:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,8 +1976,8 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:20" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
+      <c r="A38"/>
+      <c r="B38"/>
       <c r="C38" s="38" t="s">
         <v>42</v>
       </c>
@@ -1998,17 +1997,26 @@
         <v>13.5</v>
       </c>
       <c r="M38" s="33"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="N38" s="3">
+        <f>MEDIAN(N7:N32)</f>
+        <v>58</v>
+      </c>
+      <c r="O38" s="3">
+        <f>MEDIAN(O7:O32)</f>
+        <v>44</v>
+      </c>
+      <c r="P38" s="3">
+        <f>MEDIAN(P7:P32)</f>
+        <v>65.5</v>
+      </c>
       <c r="Q38" s="39"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
-      <c r="T38" s="42"/>
+      <c r="T38"/>
     </row>
     <row r="39" spans="1:20" s="41" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
+      <c r="A39"/>
+      <c r="B39"/>
       <c r="C39" s="36" t="s">
         <v>43</v>
       </c>
@@ -2043,7 +2051,7 @@
       <c r="Q39" s="39"/>
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
-      <c r="T39" s="42"/>
+      <c r="T39"/>
     </row>
     <row r="40" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C40" s="35"/>
